--- a/06-03-2023/data/output/xlsx/sample_0/13_causality.xlsx
+++ b/06-03-2023/data/output/xlsx/sample_0/13_causality.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="112">
   <si>
     <t>name</t>
   </si>
@@ -64,9 +64,6 @@
     <t>num_of_adds_and_subs__16</t>
   </si>
   <si>
-    <t>num_of_adds_and_subs__17</t>
-  </si>
-  <si>
     <t>num_of_adds_and_subs__2</t>
   </si>
   <si>
@@ -136,6 +133,30 @@
     <t>num_of_decimals__21</t>
   </si>
   <si>
+    <t>num_of_decimals__22</t>
+  </si>
+  <si>
+    <t>num_of_decimals__23</t>
+  </si>
+  <si>
+    <t>num_of_decimals__24</t>
+  </si>
+  <si>
+    <t>num_of_decimals__25</t>
+  </si>
+  <si>
+    <t>num_of_decimals__26</t>
+  </si>
+  <si>
+    <t>num_of_decimals__27</t>
+  </si>
+  <si>
+    <t>num_of_decimals__28</t>
+  </si>
+  <si>
+    <t>num_of_decimals__29</t>
+  </si>
+  <si>
     <t>num_of_decimals__3</t>
   </si>
   <si>
@@ -172,6 +193,18 @@
     <t>num_of_equals__12</t>
   </si>
   <si>
+    <t>num_of_equals__13</t>
+  </si>
+  <si>
+    <t>num_of_equals__14</t>
+  </si>
+  <si>
+    <t>num_of_equals__15</t>
+  </si>
+  <si>
+    <t>num_of_equals__16</t>
+  </si>
+  <si>
     <t>num_of_equals__2</t>
   </si>
   <si>
@@ -220,6 +253,9 @@
     <t>num_of_mults_and_divs__15</t>
   </si>
   <si>
+    <t>num_of_mults_and_divs__16</t>
+  </si>
+  <si>
     <t>num_of_mults_and_divs__2</t>
   </si>
   <si>
@@ -250,9 +286,6 @@
     <t>num_of_unknowns__1</t>
   </si>
   <si>
-    <t>num_of_unknowns__10</t>
-  </si>
-  <si>
     <t>num_of_unknowns__2</t>
   </si>
   <si>
@@ -292,21 +325,6 @@
     <t>pairs_of_parentheses__12</t>
   </si>
   <si>
-    <t>pairs_of_parentheses__13</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__14</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__15</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__16</t>
-  </si>
-  <si>
-    <t>pairs_of_parentheses__17</t>
-  </si>
-  <si>
     <t>pairs_of_parentheses__2</t>
   </si>
   <si>
@@ -332,57 +350,6 @@
   </si>
   <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2,pairs_of_parentheses__0,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__1,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__2</t>
-  </si>
-  <si>
-    <t>num_of_adds_and_subs__0,num_of_adds_and_subs__1,num_of_adds_and_subs__2,num_of_adds_and_subs__3,num_of_decimals__0,num_of_decimals__1,num_of_decimals__2,num_of_decimals__3,num_of_equals__0,num_of_equals__1,num_of_equals__2,num_of_unknowns__1,num_of_unknowns__2,num_of_unknowns__3,pairs_of_parentheses__0,pairs_of_parentheses__1</t>
   </si>
 </sst>
 </file>
@@ -740,7 +707,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -777,22 +744,19 @@
         <v>7</v>
       </c>
       <c r="C2">
-        <v>968</v>
-      </c>
-      <c r="D2">
-        <v>0.004364533109592166</v>
-      </c>
-      <c r="E2" t="s">
-        <v>106</v>
+        <v>974</v>
+      </c>
+      <c r="D2" t="s">
+        <v>111</v>
       </c>
       <c r="F2">
-        <v>0.001033057851239669</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>3.105384322363747E-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -803,22 +767,19 @@
         <v>8</v>
       </c>
       <c r="C3">
-        <v>835</v>
-      </c>
-      <c r="D3">
-        <v>0.004709012026699251</v>
-      </c>
-      <c r="E3" t="s">
-        <v>107</v>
+        <v>847</v>
+      </c>
+      <c r="D3" t="s">
+        <v>111</v>
       </c>
       <c r="F3">
-        <v>0.001197604790419162</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0.0001956007824031297</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -829,19 +790,19 @@
         <v>9</v>
       </c>
       <c r="C4">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H4">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -852,19 +813,19 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -878,16 +839,16 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -901,16 +862,16 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -924,16 +885,16 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -944,19 +905,19 @@
         <v>14</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -967,19 +928,19 @@
         <v>15</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -990,19 +951,19 @@
         <v>16</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>444</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H11">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1013,22 +974,19 @@
         <v>17</v>
       </c>
       <c r="C12">
-        <v>427</v>
-      </c>
-      <c r="D12">
-        <v>0.006400713745876452</v>
-      </c>
-      <c r="E12" t="s">
-        <v>108</v>
+        <v>310</v>
+      </c>
+      <c r="D12" t="s">
+        <v>111</v>
       </c>
       <c r="F12">
-        <v>0.00234192037470726</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.001339916366691228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1039,22 +997,19 @@
         <v>18</v>
       </c>
       <c r="C13">
-        <v>295</v>
-      </c>
-      <c r="D13">
-        <v>0.008040685273266573</v>
-      </c>
-      <c r="E13" t="s">
-        <v>109</v>
+        <v>202</v>
+      </c>
+      <c r="D13" t="s">
+        <v>111</v>
       </c>
       <c r="F13">
-        <v>0.003389830508474576</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0.002387826500458544</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1065,19 +1020,19 @@
         <v>19</v>
       </c>
       <c r="C14">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="D14" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1088,19 +1043,19 @@
         <v>20</v>
       </c>
       <c r="C15">
-        <v>130</v>
+        <v>98</v>
       </c>
       <c r="D15" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1111,19 +1066,19 @@
         <v>21</v>
       </c>
       <c r="C16">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1134,19 +1089,19 @@
         <v>22</v>
       </c>
       <c r="C17">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1160,16 +1115,16 @@
         <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1180,19 +1135,19 @@
         <v>24</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>654</v>
       </c>
       <c r="D19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1203,22 +1158,19 @@
         <v>25</v>
       </c>
       <c r="C20">
-        <v>650</v>
-      </c>
-      <c r="D20">
-        <v>0.005098073124212866</v>
-      </c>
-      <c r="E20" t="s">
-        <v>110</v>
+        <v>527</v>
+      </c>
+      <c r="D20" t="s">
+        <v>111</v>
       </c>
       <c r="F20">
-        <v>0.001538461538461538</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>0.0005364575304455065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1229,22 +1181,19 @@
         <v>26</v>
       </c>
       <c r="C21">
-        <v>522</v>
-      </c>
-      <c r="D21">
-        <v>0.005877004923796995</v>
-      </c>
-      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s">
         <v>111</v>
       </c>
       <c r="F21">
-        <v>0.001915708812260536</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0009137048042445043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1255,19 +1204,19 @@
         <v>27</v>
       </c>
       <c r="C22">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H22">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1278,19 +1227,19 @@
         <v>28</v>
       </c>
       <c r="C23">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D23" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1301,19 +1250,19 @@
         <v>29</v>
       </c>
       <c r="C24">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1324,19 +1273,19 @@
         <v>30</v>
       </c>
       <c r="C25">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1347,19 +1296,19 @@
         <v>31</v>
       </c>
       <c r="C26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F26">
         <v>0</v>
       </c>
       <c r="G26">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H26">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1373,16 +1322,16 @@
         <v>8</v>
       </c>
       <c r="D27" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F27">
         <v>0</v>
       </c>
       <c r="G27">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1393,19 +1342,19 @@
         <v>33</v>
       </c>
       <c r="C28">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F28">
         <v>0</v>
       </c>
       <c r="G28">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H28">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1416,19 +1365,19 @@
         <v>34</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F29">
         <v>0</v>
       </c>
       <c r="G29">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H29">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1442,16 +1391,16 @@
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F30">
         <v>0</v>
       </c>
       <c r="G30">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1462,19 +1411,19 @@
         <v>36</v>
       </c>
       <c r="C31">
-        <v>1</v>
+        <v>415</v>
       </c>
       <c r="D31" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F31">
         <v>0</v>
       </c>
       <c r="G31">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H31">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1485,22 +1434,19 @@
         <v>37</v>
       </c>
       <c r="C32">
-        <v>411</v>
-      </c>
-      <c r="D32">
-        <v>0.006976598488814884</v>
-      </c>
-      <c r="E32" t="s">
-        <v>112</v>
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>111</v>
       </c>
       <c r="F32">
-        <v>0.0024330900243309</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>0.001431086016314868</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1511,19 +1457,19 @@
         <v>38</v>
       </c>
       <c r="C33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F33">
         <v>0</v>
       </c>
       <c r="G33">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1537,16 +1483,16 @@
         <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F34">
         <v>0</v>
       </c>
       <c r="G34">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1557,22 +1503,19 @@
         <v>40</v>
       </c>
       <c r="C35">
-        <v>303</v>
-      </c>
-      <c r="D35">
-        <v>0.008354340673946796</v>
-      </c>
-      <c r="E35" t="s">
-        <v>113</v>
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>111</v>
       </c>
       <c r="F35">
-        <v>0.0033003300330033</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H35">
-        <v>0.002298326024987268</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1583,19 +1526,19 @@
         <v>41</v>
       </c>
       <c r="C36">
-        <v>207</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F36">
         <v>0</v>
       </c>
       <c r="G36">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1606,19 +1549,19 @@
         <v>42</v>
       </c>
       <c r="C37">
-        <v>163</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F37">
         <v>0</v>
       </c>
       <c r="G37">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H37">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1629,19 +1572,19 @@
         <v>43</v>
       </c>
       <c r="C38">
-        <v>112</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F38">
         <v>0</v>
       </c>
       <c r="G38">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1652,19 +1595,19 @@
         <v>44</v>
       </c>
       <c r="C39">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F39">
         <v>0</v>
       </c>
       <c r="G39">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H39">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1675,19 +1618,19 @@
         <v>45</v>
       </c>
       <c r="C40">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F40">
         <v>0</v>
       </c>
       <c r="G40">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1698,19 +1641,19 @@
         <v>46</v>
       </c>
       <c r="C41">
-        <v>45</v>
+        <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F41">
         <v>0</v>
       </c>
       <c r="G41">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H41">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1721,22 +1664,19 @@
         <v>47</v>
       </c>
       <c r="C42">
-        <v>996</v>
-      </c>
-      <c r="D42">
-        <v>0.004149140509802226</v>
-      </c>
-      <c r="E42" t="s">
-        <v>114</v>
+        <v>296</v>
+      </c>
+      <c r="D42" t="s">
+        <v>111</v>
       </c>
       <c r="F42">
-        <v>0.001004016064257028</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>2.012056240996039E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1747,22 +1687,19 @@
         <v>48</v>
       </c>
       <c r="C43">
-        <v>991</v>
-      </c>
-      <c r="D43">
-        <v>0.004152695555461781</v>
-      </c>
-      <c r="E43" t="s">
-        <v>115</v>
+        <v>215</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
       </c>
       <c r="F43">
-        <v>0.001009081735620585</v>
+        <v>0</v>
       </c>
       <c r="G43">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H43">
-        <v>7.077727604553295E-06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1773,19 +1710,19 @@
         <v>49</v>
       </c>
       <c r="C44">
-        <v>12</v>
+        <v>166</v>
       </c>
       <c r="D44" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F44">
         <v>0</v>
       </c>
       <c r="G44">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H44">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1796,19 +1733,19 @@
         <v>50</v>
       </c>
       <c r="C45">
-        <v>4</v>
+        <v>123</v>
       </c>
       <c r="D45" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F45">
         <v>0</v>
       </c>
       <c r="G45">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H45">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1819,19 +1756,19 @@
         <v>51</v>
       </c>
       <c r="C46">
-        <v>2</v>
+        <v>97</v>
       </c>
       <c r="D46" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F46">
         <v>0</v>
       </c>
       <c r="G46">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H46">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1842,22 +1779,19 @@
         <v>52</v>
       </c>
       <c r="C47">
-        <v>649</v>
-      </c>
-      <c r="D47">
-        <v>0.004620685129672637</v>
-      </c>
-      <c r="E47" t="s">
-        <v>116</v>
+        <v>74</v>
+      </c>
+      <c r="D47" t="s">
+        <v>111</v>
       </c>
       <c r="F47">
-        <v>0.001540832049306626</v>
+        <v>0</v>
       </c>
       <c r="G47">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0.0005388280412905937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1868,19 +1802,19 @@
         <v>53</v>
       </c>
       <c r="C48">
-        <v>475</v>
+        <v>48</v>
       </c>
       <c r="D48" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F48">
         <v>0</v>
       </c>
       <c r="G48">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H48">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1891,19 +1825,19 @@
         <v>54</v>
       </c>
       <c r="C49">
-        <v>307</v>
+        <v>996</v>
       </c>
       <c r="D49" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F49">
         <v>0</v>
       </c>
       <c r="G49">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H49">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1914,19 +1848,19 @@
         <v>55</v>
       </c>
       <c r="C50">
-        <v>233</v>
+        <v>988</v>
       </c>
       <c r="D50" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F50">
         <v>0</v>
       </c>
       <c r="G50">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H50">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1937,19 +1871,19 @@
         <v>56</v>
       </c>
       <c r="C51">
-        <v>154</v>
+        <v>15</v>
       </c>
       <c r="D51" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F51">
         <v>0</v>
       </c>
       <c r="G51">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H51">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1960,19 +1894,19 @@
         <v>57</v>
       </c>
       <c r="C52">
-        <v>101</v>
+        <v>8</v>
       </c>
       <c r="D52" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F52">
         <v>0</v>
       </c>
       <c r="G52">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H52">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1983,19 +1917,19 @@
         <v>58</v>
       </c>
       <c r="C53">
-        <v>62</v>
+        <v>6</v>
       </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F53">
         <v>0</v>
       </c>
       <c r="G53">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H53">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2006,19 +1940,19 @@
         <v>59</v>
       </c>
       <c r="C54">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F54">
         <v>0</v>
       </c>
       <c r="G54">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2029,19 +1963,19 @@
         <v>60</v>
       </c>
       <c r="C55">
-        <v>216</v>
+        <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F55">
         <v>0</v>
       </c>
       <c r="G55">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H55">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2052,19 +1986,19 @@
         <v>61</v>
       </c>
       <c r="C56">
-        <v>171</v>
+        <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F56">
         <v>0</v>
       </c>
       <c r="G56">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2075,19 +2009,19 @@
         <v>62</v>
       </c>
       <c r="C57">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F57">
         <v>0</v>
       </c>
       <c r="G57">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H57">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2098,19 +2032,19 @@
         <v>63</v>
       </c>
       <c r="C58">
-        <v>8</v>
+        <v>636</v>
       </c>
       <c r="D58" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F58">
         <v>0</v>
       </c>
       <c r="G58">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H58">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2121,19 +2055,19 @@
         <v>64</v>
       </c>
       <c r="C59">
-        <v>6</v>
+        <v>486</v>
       </c>
       <c r="D59" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F59">
         <v>0</v>
       </c>
       <c r="G59">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H59">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2144,19 +2078,19 @@
         <v>65</v>
       </c>
       <c r="C60">
-        <v>3</v>
+        <v>320</v>
       </c>
       <c r="D60" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F60">
         <v>0</v>
       </c>
       <c r="G60">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H60">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2167,19 +2101,19 @@
         <v>66</v>
       </c>
       <c r="C61">
-        <v>3</v>
+        <v>236</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F61">
         <v>0</v>
       </c>
       <c r="G61">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2190,19 +2124,19 @@
         <v>67</v>
       </c>
       <c r="C62">
-        <v>2</v>
+        <v>167</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F62">
         <v>0</v>
       </c>
       <c r="G62">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H62">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2216,16 +2150,16 @@
         <v>110</v>
       </c>
       <c r="D63" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F63">
         <v>0</v>
       </c>
       <c r="G63">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2236,19 +2170,19 @@
         <v>69</v>
       </c>
       <c r="C64">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D64" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F64">
         <v>0</v>
       </c>
       <c r="G64">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H64">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2259,19 +2193,19 @@
         <v>70</v>
       </c>
       <c r="C65">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D65" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F65">
         <v>0</v>
       </c>
       <c r="G65">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2282,19 +2216,19 @@
         <v>71</v>
       </c>
       <c r="C66">
-        <v>53</v>
+        <v>225</v>
       </c>
       <c r="D66" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F66">
         <v>0</v>
       </c>
       <c r="G66">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H66">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2305,19 +2239,19 @@
         <v>72</v>
       </c>
       <c r="C67">
-        <v>32</v>
+        <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F67">
         <v>0</v>
       </c>
       <c r="G67">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2328,19 +2262,19 @@
         <v>73</v>
       </c>
       <c r="C68">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="D68" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F68">
         <v>0</v>
       </c>
       <c r="G68">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H68">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2351,19 +2285,19 @@
         <v>74</v>
       </c>
       <c r="C69">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D69" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F69">
         <v>0</v>
       </c>
       <c r="G69">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2374,19 +2308,19 @@
         <v>75</v>
       </c>
       <c r="C70">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="D70" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F70">
         <v>0</v>
       </c>
       <c r="G70">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2397,16 +2331,16 @@
         <v>76</v>
       </c>
       <c r="C71">
-        <v>998</v>
+        <v>4</v>
       </c>
       <c r="D71" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F71">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2420,22 +2354,19 @@
         <v>77</v>
       </c>
       <c r="C72">
-        <v>708</v>
-      </c>
-      <c r="D72">
-        <v>0.004947500323044283</v>
-      </c>
-      <c r="E72" t="s">
-        <v>117</v>
+        <v>3</v>
+      </c>
+      <c r="D72" t="s">
+        <v>111</v>
       </c>
       <c r="F72">
-        <v>0.001412429378531073</v>
+        <v>0</v>
       </c>
       <c r="G72">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>0.0004104253705150415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2446,19 +2377,19 @@
         <v>78</v>
       </c>
       <c r="C73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D73" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F73">
         <v>0</v>
       </c>
       <c r="G73">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H73">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2469,22 +2400,19 @@
         <v>79</v>
       </c>
       <c r="C74">
-        <v>121</v>
-      </c>
-      <c r="D74">
-        <v>0.01372900557844866</v>
-      </c>
-      <c r="E74" t="s">
-        <v>118</v>
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>111</v>
       </c>
       <c r="F74">
-        <v>0.008264462809917356</v>
+        <v>0</v>
       </c>
       <c r="G74">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H74">
-        <v>0.007262458801901323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2495,22 +2423,19 @@
         <v>80</v>
       </c>
       <c r="C75">
-        <v>54</v>
-      </c>
-      <c r="D75">
-        <v>0.02760798605110752</v>
-      </c>
-      <c r="E75" t="s">
-        <v>119</v>
+        <v>115</v>
+      </c>
+      <c r="D75" t="s">
+        <v>111</v>
       </c>
       <c r="F75">
-        <v>0.01851851851851852</v>
+        <v>0</v>
       </c>
       <c r="G75">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H75">
-        <v>0.01751651451050248</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2521,19 +2446,19 @@
         <v>81</v>
       </c>
       <c r="C76">
-        <v>31</v>
+        <v>87</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F76">
         <v>0</v>
       </c>
       <c r="G76">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H76">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2544,19 +2469,19 @@
         <v>82</v>
       </c>
       <c r="C77">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="D77" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F77">
         <v>0</v>
       </c>
       <c r="G77">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H77">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2567,19 +2492,19 @@
         <v>83</v>
       </c>
       <c r="C78">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="D78" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F78">
         <v>0</v>
       </c>
       <c r="G78">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H78">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2590,19 +2515,19 @@
         <v>84</v>
       </c>
       <c r="C79">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F79">
         <v>0</v>
       </c>
       <c r="G79">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H79">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2613,19 +2538,19 @@
         <v>85</v>
       </c>
       <c r="C80">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F80">
         <v>0</v>
       </c>
       <c r="G80">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H80">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2636,19 +2561,19 @@
         <v>86</v>
       </c>
       <c r="C81">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="D81" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F81">
         <v>0</v>
       </c>
       <c r="G81">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H81">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2659,22 +2584,19 @@
         <v>87</v>
       </c>
       <c r="C82">
-        <v>457</v>
-      </c>
-      <c r="D82">
-        <v>0.005897469579577399</v>
-      </c>
-      <c r="E82" t="s">
-        <v>120</v>
+        <v>12</v>
+      </c>
+      <c r="D82" t="s">
+        <v>111</v>
       </c>
       <c r="F82">
-        <v>0.002188183807439825</v>
+        <v>0</v>
       </c>
       <c r="G82">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H82">
-        <v>0.001186179799423793</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2685,22 +2607,19 @@
         <v>88</v>
       </c>
       <c r="C83">
-        <v>180</v>
-      </c>
-      <c r="D83">
-        <v>0.009588537464346812</v>
-      </c>
-      <c r="E83" t="s">
-        <v>121</v>
+        <v>997</v>
+      </c>
+      <c r="D83" t="s">
+        <v>111</v>
       </c>
       <c r="F83">
-        <v>0.005555555555555556</v>
+        <v>0</v>
       </c>
       <c r="G83">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H83">
-        <v>0.004553551547539524</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2711,19 +2630,19 @@
         <v>89</v>
       </c>
       <c r="C84">
-        <v>1</v>
+        <v>704</v>
       </c>
       <c r="D84" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F84">
         <v>0</v>
       </c>
       <c r="G84">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H84">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2734,19 +2653,19 @@
         <v>90</v>
       </c>
       <c r="C85">
-        <v>1</v>
+        <v>119</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F85">
         <v>0</v>
       </c>
       <c r="G85">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H85">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2757,19 +2676,19 @@
         <v>91</v>
       </c>
       <c r="C86">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F86">
         <v>0</v>
       </c>
       <c r="G86">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H86">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2780,19 +2699,19 @@
         <v>92</v>
       </c>
       <c r="C87">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="D87" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F87">
         <v>0</v>
       </c>
       <c r="G87">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H87">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2803,19 +2722,19 @@
         <v>93</v>
       </c>
       <c r="C88">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D88" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F88">
         <v>0</v>
       </c>
       <c r="G88">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H88">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2826,19 +2745,19 @@
         <v>94</v>
       </c>
       <c r="C89">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D89" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F89">
         <v>0</v>
       </c>
       <c r="G89">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H89">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2849,19 +2768,19 @@
         <v>95</v>
       </c>
       <c r="C90">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F90">
         <v>0</v>
       </c>
       <c r="G90">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H90">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2872,19 +2791,19 @@
         <v>96</v>
       </c>
       <c r="C91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D91" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F91">
         <v>0</v>
       </c>
       <c r="G91">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H91">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2895,22 +2814,19 @@
         <v>97</v>
       </c>
       <c r="C92">
-        <v>94</v>
-      </c>
-      <c r="D92">
-        <v>0.0159748864863125</v>
-      </c>
-      <c r="E92" t="s">
-        <v>122</v>
+        <v>1</v>
+      </c>
+      <c r="D92" t="s">
+        <v>111</v>
       </c>
       <c r="F92">
-        <v>0.01063829787234043</v>
+        <v>0</v>
       </c>
       <c r="G92">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H92">
-        <v>0.009636293864324394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2921,19 +2837,19 @@
         <v>98</v>
       </c>
       <c r="C93">
-        <v>55</v>
+        <v>466</v>
       </c>
       <c r="D93" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F93">
         <v>0</v>
       </c>
       <c r="G93">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H93">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2944,19 +2860,19 @@
         <v>99</v>
       </c>
       <c r="C94">
-        <v>30</v>
+        <v>184</v>
       </c>
       <c r="D94" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F94">
         <v>0</v>
       </c>
       <c r="G94">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H94">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2967,19 +2883,19 @@
         <v>100</v>
       </c>
       <c r="C95">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="D95" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F95">
         <v>0</v>
       </c>
       <c r="G95">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H95">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2990,19 +2906,19 @@
         <v>101</v>
       </c>
       <c r="C96">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F96">
         <v>0</v>
       </c>
       <c r="G96">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H96">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3013,19 +2929,19 @@
         <v>102</v>
       </c>
       <c r="C97">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D97" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F97">
         <v>0</v>
       </c>
       <c r="G97">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H97">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3036,19 +2952,19 @@
         <v>103</v>
       </c>
       <c r="C98">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="D98" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F98">
         <v>0</v>
       </c>
       <c r="G98">
-        <v>0.001002004008016032</v>
+        <v>0</v>
       </c>
       <c r="H98">
-        <v>-0.001002004008016032</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3059,19 +2975,157 @@
         <v>104</v>
       </c>
       <c r="C99">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="D99" t="s">
+        <v>111</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100" s="1">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
         <v>105</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <v>0.001002004008016032</v>
-      </c>
-      <c r="H99">
-        <v>-0.001002004008016032</v>
+      <c r="C100">
+        <v>23</v>
+      </c>
+      <c r="D100" t="s">
+        <v>111</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101" s="1">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>106</v>
+      </c>
+      <c r="C101">
+        <v>17</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="F101">
+        <v>0</v>
+      </c>
+      <c r="G101">
+        <v>0</v>
+      </c>
+      <c r="H101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102" s="1">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>107</v>
+      </c>
+      <c r="C102">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s">
+        <v>111</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103" s="1">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>108</v>
+      </c>
+      <c r="C103">
+        <v>8</v>
+      </c>
+      <c r="D103" t="s">
+        <v>111</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104" s="1">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>109</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="1">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>110</v>
+      </c>
+      <c r="C105">
+        <v>5</v>
+      </c>
+      <c r="D105" t="s">
+        <v>111</v>
+      </c>
+      <c r="F105">
+        <v>0</v>
+      </c>
+      <c r="G105">
+        <v>0</v>
+      </c>
+      <c r="H105">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
